--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08CE8A73-0568-4AA2-8381-BB9DA851E151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F358620-C753-4193-96D9-0F9CBD12A137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="856" firstSheet="6" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="856" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ScreeningPersons" sheetId="6" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6623" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6623" uniqueCount="585">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1821,9 +1821,6 @@
   </si>
   <si>
     <t>REASSIGN_BTN</t>
-  </si>
-  <si>
-    <t>past</t>
   </si>
 </sst>
 </file>
@@ -17168,7 +17165,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21650,7 +21647,7 @@
         <v>33</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>585</v>
+        <v>26</v>
       </c>
       <c r="H16" s="53" t="s">
         <v>172</v>
@@ -21990,7 +21987,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>585</v>
+        <v>26</v>
       </c>
       <c r="H17" s="53" t="s">
         <v>172</v>
